--- a/figures_and_tables/Table_S2.xlsx
+++ b/figures_and_tables/Table_S2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16700" windowHeight="12740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>42408</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
